--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
@@ -525,16 +525,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H2">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +543,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.210962914672797</v>
+        <v>0.2280253333333333</v>
       </c>
       <c r="N2">
-        <v>0.210962914672797</v>
+        <v>0.684076</v>
       </c>
       <c r="O2">
-        <v>0.5340784191698578</v>
+        <v>0.5347665151402629</v>
       </c>
       <c r="P2">
-        <v>0.5340784191698578</v>
+        <v>0.5347665151402629</v>
       </c>
       <c r="Q2">
-        <v>0.5943734179593482</v>
+        <v>0.6435101411831111</v>
       </c>
       <c r="R2">
-        <v>0.5943734179593482</v>
+        <v>5.791591270648</v>
       </c>
       <c r="S2">
-        <v>0.5340784191698578</v>
+        <v>0.5347665151402629</v>
       </c>
       <c r="T2">
-        <v>0.5340784191698578</v>
+        <v>0.5347665151402629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +587,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H3">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -605,34 +605,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.184040716068745</v>
+        <v>0.1983763333333333</v>
       </c>
       <c r="N3">
-        <v>0.184040716068745</v>
+        <v>0.595129</v>
       </c>
       <c r="O3">
-        <v>0.4659215808301422</v>
+        <v>0.4652334848597371</v>
       </c>
       <c r="P3">
-        <v>0.4659215808301422</v>
+        <v>0.4652334848597371</v>
       </c>
       <c r="Q3">
-        <v>0.5185219858339929</v>
+        <v>0.5598377180491112</v>
       </c>
       <c r="R3">
-        <v>0.5185219858339929</v>
+        <v>5.038539462442</v>
       </c>
       <c r="S3">
-        <v>0.4659215808301422</v>
+        <v>0.4652334848597371</v>
       </c>
       <c r="T3">
-        <v>0.4659215808301422</v>
+        <v>0.4652334848597371</v>
       </c>
     </row>
   </sheetData>
